--- a/data_process.xlsx
+++ b/data_process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1182" documentId="8_{9F6A08B6-5683-43F2-98C5-3B1714DD1159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891EB52F-2106-4E17-B430-6AD932160292}"/>
+  <xr:revisionPtr revIDLastSave="1211" documentId="8_{9F6A08B6-5683-43F2-98C5-3B1714DD1159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB85CBB7-14B3-49DF-BBD1-BE20981F07E8}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="3480" windowWidth="24168" windowHeight="14388" activeTab="3" xr2:uid="{5332E8DA-3559-4490-BA54-BA42E9EBA1BF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5332E8DA-3559-4490-BA54-BA42E9EBA1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="primary" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="132">
   <si>
     <t>study</t>
   </si>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t>Buoaziz</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>epi</t>
   </si>
 </sst>
 </file>
@@ -487,6 +496,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,19 +819,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408CCF17-6310-410C-92ED-EC3A0A05C5D9}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,8 +883,11 @@
       <c r="Q1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -917,11 +933,17 @@
       <c r="O2" t="s">
         <v>44</v>
       </c>
+      <c r="P2" t="s">
+        <v>129</v>
+      </c>
       <c r="Q2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -967,11 +989,17 @@
       <c r="O3" t="s">
         <v>44</v>
       </c>
+      <c r="P3" t="s">
+        <v>130</v>
+      </c>
       <c r="Q3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1017,11 +1045,17 @@
       <c r="O4" t="s">
         <v>44</v>
       </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
       <c r="Q4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1067,11 +1101,17 @@
       <c r="O5" t="s">
         <v>44</v>
       </c>
+      <c r="P5" t="s">
+        <v>130</v>
+      </c>
       <c r="Q5" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1117,11 +1157,17 @@
       <c r="O6" t="s">
         <v>14</v>
       </c>
+      <c r="P6" t="s">
+        <v>130</v>
+      </c>
       <c r="Q6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1167,11 +1213,17 @@
       <c r="O7" t="s">
         <v>14</v>
       </c>
+      <c r="P7" t="s">
+        <v>130</v>
+      </c>
       <c r="Q7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1202,6 +1254,9 @@
       <c r="J8" t="s">
         <v>23</v>
       </c>
+      <c r="K8" t="s">
+        <v>113</v>
+      </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
@@ -1213,12 +1268,18 @@
       </c>
       <c r="O8" t="s">
         <v>44</v>
+      </c>
+      <c r="P8" t="s">
+        <v>130</v>
       </c>
       <c r="Q8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1264,11 +1325,17 @@
       <c r="O9" t="s">
         <v>44</v>
       </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
       <c r="Q9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1314,11 +1381,17 @@
       <c r="O10" t="s">
         <v>44</v>
       </c>
+      <c r="P10" t="s">
+        <v>130</v>
+      </c>
       <c r="Q10" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1364,11 +1437,17 @@
       <c r="O11" t="s">
         <v>14</v>
       </c>
+      <c r="P11" t="s">
+        <v>130</v>
+      </c>
       <c r="Q11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1414,11 +1493,17 @@
       <c r="O12" t="s">
         <v>14</v>
       </c>
+      <c r="P12" t="s">
+        <v>130</v>
+      </c>
       <c r="Q12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1464,11 +1549,17 @@
       <c r="O13" t="s">
         <v>14</v>
       </c>
+      <c r="P13" t="s">
+        <v>130</v>
+      </c>
       <c r="Q13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1514,11 +1605,17 @@
       <c r="O14" t="s">
         <v>44</v>
       </c>
+      <c r="P14" t="s">
+        <v>130</v>
+      </c>
       <c r="Q14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1564,11 +1661,17 @@
       <c r="O15" t="s">
         <v>14</v>
       </c>
+      <c r="P15" t="s">
+        <v>130</v>
+      </c>
       <c r="Q15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1614,11 +1717,17 @@
       <c r="O16" t="s">
         <v>44</v>
       </c>
+      <c r="P16" t="s">
+        <v>130</v>
+      </c>
       <c r="Q16" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1664,11 +1773,17 @@
       <c r="O17" t="s">
         <v>14</v>
       </c>
+      <c r="P17" t="s">
+        <v>130</v>
+      </c>
       <c r="Q17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1714,11 +1829,17 @@
       <c r="O18" t="s">
         <v>14</v>
       </c>
+      <c r="P18" t="s">
+        <v>130</v>
+      </c>
       <c r="Q18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1764,11 +1885,17 @@
       <c r="O19" t="s">
         <v>44</v>
       </c>
+      <c r="P19" t="s">
+        <v>129</v>
+      </c>
       <c r="Q19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1814,11 +1941,17 @@
       <c r="O20" t="s">
         <v>44</v>
       </c>
+      <c r="P20" t="s">
+        <v>129</v>
+      </c>
       <c r="Q20" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1864,8 +1997,14 @@
       <c r="O21" t="s">
         <v>44</v>
       </c>
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
       <c r="Q21" t="s">
         <v>120</v>
+      </c>
+      <c r="R21" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1882,14 +2021,14 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.1328125" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +2068,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -2051,7 +2190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2201,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2117,7 +2256,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2131,7 +2270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2148,7 +2287,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2201,7 +2340,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2212,7 +2351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2220,7 +2359,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2243,7 +2382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2293,12 +2432,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2327,7 +2466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2359,7 +2498,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2382,7 +2521,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2437,7 +2576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2445,7 +2584,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2498,7 +2637,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2524,7 +2663,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2548,9 +2687,9 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2585,7 +2724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2620,7 +2759,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2655,7 +2794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2690,7 +2829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2725,7 +2864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2760,7 +2899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2795,7 +2934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2830,7 +2969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2865,7 +3004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2900,7 +3039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2935,7 +3074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2970,7 +3109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3005,7 +3144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3053,9 +3192,9 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3090,7 +3229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3125,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3160,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3195,7 +3334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3230,7 +3369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3265,7 +3404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3300,7 +3439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3335,7 +3474,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3370,7 +3509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3405,7 +3544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3440,7 +3579,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -3484,13 +3623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0A9F33-787C-4022-95D4-1EA8749E77F9}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3664,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3595,7 +3734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3630,7 +3769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3665,7 +3804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3700,7 +3839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -3735,7 +3874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3770,7 +3909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3805,7 +3944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3837,7 +3976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3872,7 +4011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -3907,7 +4046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>128</v>
       </c>
@@ -3952,12 +4091,12 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A1:XFD1048576"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +4125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4015,7 +4154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4044,7 +4183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4073,7 +4212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4102,7 +4241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4131,7 +4270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4160,7 +4299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4189,7 +4328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4218,7 +4357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4260,9 +4399,9 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4303,7 +4442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4335,7 +4474,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4367,7 +4506,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4399,7 +4538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4431,7 +4570,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4463,7 +4602,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4495,7 +4634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4546,9 +4685,9 @@
       <selection activeCell="I10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4606,7 +4745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4635,7 +4774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4664,7 +4803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4693,7 +4832,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4735,9 +4874,9 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4917,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4792,7 +4931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4806,7 +4945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4820,7 +4959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4840,7 +4979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4872,7 +5011,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -4892,7 +5031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4915,7 +5054,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4947,7 +5086,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4979,7 +5118,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4993,7 +5132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5007,7 +5146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5039,7 +5178,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5053,7 +5192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5067,7 +5206,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5081,7 +5220,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5116,7 +5255,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -5130,7 +5269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -5144,7 +5283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5158,7 +5297,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5185,9 +5324,9 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5207,7 +5346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5227,7 +5366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5247,7 +5386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5267,7 +5406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5287,7 +5426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5307,7 +5446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -5327,7 +5466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5347,7 +5486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5367,7 +5506,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5390,7 +5529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5404,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>39</v>
       </c>

--- a/data_process.xlsx
+++ b/data_process.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1211" documentId="8_{9F6A08B6-5683-43F2-98C5-3B1714DD1159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB85CBB7-14B3-49DF-BBD1-BE20981F07E8}"/>
+  <xr:revisionPtr revIDLastSave="1217" documentId="8_{9F6A08B6-5683-43F2-98C5-3B1714DD1159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1AF6677-B7D0-49CF-A795-09A21F192BFE}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{5332E8DA-3559-4490-BA54-BA42E9EBA1BF}"/>
+    <workbookView xWindow="156" yWindow="3000" windowWidth="24168" windowHeight="14388" firstSheet="3" activeTab="9" xr2:uid="{5332E8DA-3559-4490-BA54-BA42E9EBA1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="primary" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="133">
   <si>
     <t>study</t>
   </si>
@@ -302,9 +302,6 @@
     <t>&gt;=7 pain in 24 hour, ns</t>
   </si>
   <si>
-    <t>no difference in hematoma, vascular injury, paresthesia, horner</t>
-  </si>
-  <si>
     <t>2 arterial puncture but did not specify the group</t>
   </si>
   <si>
@@ -431,9 +428,6 @@
     <t>ax+sc</t>
   </si>
   <si>
-    <t>Buoaziz</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -441,6 +435,15 @@
   </si>
   <si>
     <t>epi</t>
+  </si>
+  <si>
+    <t>Bouaziz</t>
+  </si>
+  <si>
+    <t>no difference in hematoma, vascular injury, paresthesia, horner, 2 transient but not sure group?</t>
+  </si>
+  <si>
+    <t>no persistent deficit noted</t>
   </si>
 </sst>
 </file>
@@ -821,17 +824,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408CCF17-6310-410C-92ED-EC3A0A05C5D9}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,31 +866,31 @@
         <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
         <v>42</v>
       </c>
       <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" t="s">
-        <v>119</v>
-      </c>
       <c r="R1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -934,16 +937,16 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -978,7 +981,7 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -990,16 +993,16 @@
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1046,16 +1049,16 @@
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1102,16 +1105,16 @@
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1158,16 +1161,16 @@
         <v>14</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1214,16 +1217,16 @@
         <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -1270,16 +1273,16 @@
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1326,16 +1329,16 @@
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1382,16 +1385,16 @@
         <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1438,16 +1441,16 @@
         <v>14</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1494,16 +1497,16 @@
         <v>14</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1550,16 +1553,16 @@
         <v>14</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1606,16 +1609,16 @@
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1662,16 +1665,16 @@
         <v>14</v>
       </c>
       <c r="P15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1718,16 +1721,16 @@
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1774,16 +1777,16 @@
         <v>14</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1830,16 +1833,16 @@
         <v>14</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1886,16 +1889,16 @@
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L20" t="s">
         <v>14</v>
@@ -1942,16 +1945,16 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1998,10 +2001,10 @@
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R21" t="s">
         <v>44</v>
@@ -2016,19 +2019,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D625EA-ACB2-4012-BF27-317762742AE6}">
   <dimension ref="A1:AT22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.1328125" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="15.86328125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2059,16 +2062,16 @@
         <v>83</v>
       </c>
       <c r="AJ1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AO1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AR1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2198,10 +2201,10 @@
         <v>2023</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2250,27 +2253,30 @@
         <v>1.48</v>
       </c>
       <c r="AE5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>2016</v>
       </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
       <c r="AE6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AT6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2337,10 +2343,10 @@
         <v>63</v>
       </c>
       <c r="AQ8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2348,10 +2354,10 @@
         <v>2013</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -2382,7 +2388,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2432,12 +2438,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2009</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA15">
         <v>1</v>
@@ -2495,10 +2501,10 @@
         <v>1.49</v>
       </c>
       <c r="AE15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>2013</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2515,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="AQ16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT16" t="s">
         <v>91</v>
       </c>
-      <c r="AT16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2544,7 +2550,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2552,7 +2558,7 @@
         <v>1994</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2561,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ18">
         <v>10</v>
@@ -2576,7 +2582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>2024</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2604,7 +2610,7 @@
         <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA20">
         <v>3.5</v>
@@ -2637,7 +2643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2645,25 +2651,25 @@
         <v>2020</v>
       </c>
       <c r="P21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AA21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AE21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
-        <v>107</v>
-      </c>
       <c r="AQ21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2687,9 +2693,9 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2756,10 +2762,10 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2794,7 +2800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3039,7 +3045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -3074,7 +3080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3189,12 +3195,12 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -3474,7 +3480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -3579,9 +3585,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B12">
         <v>1998</v>
@@ -3624,12 +3630,12 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3664,7 +3670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3699,7 +3705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3944,7 +3950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -3976,7 +3982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4046,9 +4052,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>1998</v>
@@ -4094,9 +4100,9 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4183,7 +4189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4212,7 +4218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -4270,7 +4276,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4299,7 +4305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4328,7 +4334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4399,9 +4405,9 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4442,7 +4448,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4538,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4570,7 +4576,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4602,7 +4608,7 @@
         <v>12.09</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4634,7 +4640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4682,12 +4688,12 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4745,7 +4751,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4803,7 +4809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -4832,7 +4838,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4874,9 +4880,9 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4931,7 +4937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4979,7 +4985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5011,7 +5017,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -5051,10 +5057,10 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -5132,7 +5138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5178,7 +5184,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -5206,7 +5212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -5220,7 +5226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -5252,10 +5258,10 @@
         <v>11.4</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -5283,7 +5289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5297,7 +5303,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5321,12 +5327,12 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5366,7 +5372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5406,7 +5412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -5446,7 +5452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -5466,7 +5472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5506,7 +5512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5529,7 +5535,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5542,8 +5548,14 @@
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
